--- a/data/trans_bre/P25_9-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_9-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,52</t>
+          <t>26,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>12,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,2</t>
+          <t>20,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>239,05%</t>
+          <t>29,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>51,03%</t>
+          <t>453,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>134,26%</t>
+          <t>116,18%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>376,4%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>160,17%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,09; 31,13</t>
+          <t>10,91; 43,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 16,57</t>
+          <t>-1,29; 26,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 21,47</t>
+          <t>6,01; 33,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>65,57; 712,56</t>
+          <t>8,06; 50,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 188,13</t>
+          <t>59,17; 2517,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 481,5</t>
+          <t>-20,95; 517,16</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28,9; 1886,31</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24,71; 671,56</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>12,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,14</t>
+          <t>15,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,97</t>
+          <t>12,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>347,61%</t>
+          <t>12,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>381,41%</t>
+          <t>257,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>701,2%</t>
+          <t>629,42%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>387,46%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>142,17%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 18,1</t>
+          <t>6,78; 20,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,2; 20,07</t>
+          <t>9,66; 22,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,5; 21,78</t>
+          <t>6,68; 18,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>136,13; 790,26</t>
+          <t>4,5; 20,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,63; 1111,82</t>
+          <t>65,17; 814,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>265,23; 1934,55</t>
+          <t>187,07; 1984,84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>100,43; 1301,68</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33,96; 397,13</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,14</t>
+          <t>11,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>11,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,71</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>213,03%</t>
+          <t>11,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>409,28%</t>
+          <t>252,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>321,98%</t>
+          <t>567,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>519,04%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>300,81%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 15,22</t>
+          <t>5,21; 18,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 15,28</t>
+          <t>6,66; 17,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 14,56</t>
+          <t>5,21; 16,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>61,23; 544,98</t>
+          <t>4,88; 17,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>104,22; 1151,58</t>
+          <t>51,5; 919,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,26; 1023,87</t>
+          <t>106,48; 2394,57</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>60,25; 2079,08</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>51,61; 1204,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>272,34%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>243,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>377,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,15; 17,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 15,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 16,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>156,45; 464,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,4; 423,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>204,97; 660,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13,89</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,66</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12,8</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14,97</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>284,79%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>393,75%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>413,38%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>169,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9,27; 18,47</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9,92; 17,93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9,23; 17,06</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 21,33</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>137,29; 566,81</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>185,23; 817,81</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>190,24; 904,19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>75,21; 324,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_9-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_9-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>26,36</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>12,34</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>20,27</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>29,03</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>453,5%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>116,18%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>376,4%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>160,17%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>23.43676326265522</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>13.23897750828422</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>21.28778969768483</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>29.45100905206136</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>2.993289206032499</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.280826330525986</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>4.165726061542709</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.779538429339921</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>10,91; 43,23</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 26,43</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6,01; 33,95</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>8,06; 50,08</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>59,17; 2517,75</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-20,95; 517,16</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>28,9; 1886,31</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>24,71; 671,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>6.774345818716738</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.1637155568580818</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>7.012120225245471</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>8.021570853094588</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.09767404645350959</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1579299294070708</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.354312782609023</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.2829917345508705</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>39.75526303349133</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>28.93883488190997</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>36.70539450463174</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>49.3952832308074</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>19.15062642939606</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>5.511527267301145</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>19.77888996305368</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>6.971668277918653</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>12,84</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>15,69</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>12,15</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,84</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>257,42%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>629,42%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>387,46%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>142,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>6,78; 20,4</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>9,66; 22,02</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,68; 18,52</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 20,93</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>65,17; 814,21</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>187,07; 1984,84</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>100,43; 1301,68</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>33,96; 397,13</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>14.63135626256649</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>15.66138627177416</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>11.90797727145552</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>12.76931394672079</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.150917612262509</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>6.588266765771657</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>3.922458141973837</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.491986970236784</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,02</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,92</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,87</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,52</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>252,03%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>567,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>519,04%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>300,81%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>8.375653200721125</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>10.00518736560509</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>6.42120505282583</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>4.805023869781011</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.8818449873483095</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>1.835745631743884</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>1.038313856014906</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.3773216753682472</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>5,21; 18,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,66; 17,78</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5,21; 16,65</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>4,88; 17,63</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>51,5; 919,17</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>106,48; 2394,57</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>60,25; 2079,08</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>51,61; 1204,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>22.85440390548801</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>22.0705132729889</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>18.15102252962962</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>20.84140577948504</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>10.13956164834615</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>20.97745869752968</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>13.05329946437641</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.18446737842366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>11.32985612868518</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>12.0193811155453</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>10.41771993666027</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>10.92414318281061</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>2.934081042718319</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>6.139781251337915</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>5.220354713882115</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.88840938180977</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>5.685748086060348</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.786112187006197</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>4.94943325745308</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>4.579924429845413</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.6510448060251016</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>1.095958338179552</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.6818866253212548</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.4770822968070889</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.13639437941166</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.96499042451655</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>15.81339797325555</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>16.82661369037405</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>10.22062265463773</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>25.06608487419532</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>20.36343541464005</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>11.89159395130426</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>13,89</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13,66</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>12,8</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>14,97</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>284,79%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>393,75%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>413,38%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>169,44%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>9,27; 18,47</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>9,92; 17,93</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>9,23; 17,06</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>9,13; 21,33</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>137,29; 566,81</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>185,23; 817,81</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>190,24; 904,19</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>75,21; 324,72</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>14.42517478327708</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>13.92898667299133</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>12.77516528953517</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>15.04318415328707</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.01330569133673</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>4.261173219014878</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>4.311025062726414</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.8139724033666</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>9.784688807168877</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>10.24854661052248</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>9.170265016838679</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>9.239219753315323</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1.436672245801548</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>2.117762879081609</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>1.919904039905352</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.8380025631751895</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>19.30360898719901</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.25444171388134</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>17.22777228322268</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>21.05613218745992</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.981926050125628</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>8.866215248642295</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>9.047956873792808</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.47369847765154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
